--- a/biology/Botanique/Orchis_odorant/Orchis_odorant.xlsx
+++ b/biology/Botanique/Orchis_odorant/Orchis_odorant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnadenia odoratissima
 L’Orchis odorant, Orchis très odorant ou Gymnadénie très odorante (Gymnadenia odoratissima), est une espèce de plantes à fleurs de la famille des Orchidaceae appartenant au genre Gymnadenia R.Br., 1813. C'est une orchidée terrestre essentiellement d'Europe centrale.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin odoratus (odoriférant ou parfumé), se référant au parfum (plus ou moins prononcé) des fleurs.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : 10-50 cm, souvent assez grêle, à l'inflorescence en épi plus ou moins dense.
 Feuilles : 5 à 12, linéaires, étroites et dressées, basilaires engainantes et caulinaires bractéiformes, d'un vert mat.
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De juin à août, selon l'altitude.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">0-2 800 m. Plante généralement de pleine lumière, sur substrats calcaires plus ou moins humides, parfois secs, en milieux herbeux: marais alcalins, talus suintants, alpages, prairies.
 </t>
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plutôt d'Europe centrale, son aire de dispersion européenne est plus restreinte que celle de l’Orchis moucheron (Gymnadenia conopsea (L.) R.Br., 1813).
 Géographiquement répandu en France, mais assez rare à très rare.
@@ -671,7 +693,9 @@
           <t>Menace et protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'Orchis odorant est une espèce menacée (notamment par l'assèchement des zones humides et les reboisements):
 Protégée en France dans plusieurs régions (ex.: Alsace, Centre-Val de Loire, Rhône-Alpes);
@@ -703,7 +727,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Alsace, en Aquitaine, dans le Centre, en Champagne-Ardenne, en Franche-Comté, en Haute-Normandie, en Île de France, en Lorraine, en Midi-Pyrénées, en Pays de la Loire et en Picardie.
 Liste des espèces végétales protégées en Alsace
